--- a/cricketersNew.xlsx
+++ b/cricketersNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuva\Desktop\CricketersSearchEngineTamil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E709F7-269B-4A42-8CFD-D09FC8A6DC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248E54F5-B54A-461B-B4A9-1E881174B5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3523,7 +3523,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
